--- a/biology/Médecine/1457_en_santé_et_médecine/1457_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1457_en_santé_et_médecine/1457_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1457_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1457_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1457 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1457_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1457_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Événements</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>21 septembre : fondation par Albert VI, archiduc d'Autriche, de l'université de Fribourg, dans le pays de Bade, où la médecine est enseignée dès l'ouverture[1].
-25 octobre : une bulle du pape Calixte III réunit, à Flavigny en Bourgogne, la maison-Dieu Saint-Nicolas, l'hôpital Saint-Laurent et la léproserie Saint-Jacques[2].
-26 novembre : les statuts du collège de Foix, à Toulouse, établissent une infirmerie pour les étudiants malades, et prévoient le recrutement d'un médecin « au plus bas salaire possible[3] ».</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>21 septembre : fondation par Albert VI, archiduc d'Autriche, de l'université de Fribourg, dans le pays de Bade, où la médecine est enseignée dès l'ouverture.
+25 octobre : une bulle du pape Calixte III réunit, à Flavigny en Bourgogne, la maison-Dieu Saint-Nicolas, l'hôpital Saint-Laurent et la léproserie Saint-Jacques.
+26 novembre : les statuts du collège de Foix, à Toulouse, établissent une infirmerie pour les étudiants malades, et prévoient le recrutement d'un médecin « au plus bas salaire possible ».</t>
         </is>
       </c>
     </row>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1457_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1457_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,10 +557,12 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Parution chez Gutenberg, à Mayence, du Laxiercalender (« Calendrier des purgations »), simple feuille in-folio qui constitue la première édition imprimée d'un ouvrage de médecine[4].
-Composition de la Farce de Maître Pathelin, première pièce de théâtre connue en français qui contienne une satire des médecins[5].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Parution chez Gutenberg, à Mayence, du Laxiercalender (« Calendrier des purgations »), simple feuille in-folio qui constitue la première édition imprimée d'un ouvrage de médecine.
+Composition de la Farce de Maître Pathelin, première pièce de théâtre connue en français qui contienne une satire des médecins.</t>
         </is>
       </c>
     </row>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1457_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1457_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Personnalité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1408-1457 : fl. Moïse Marvan, chirurgien de l'hôpital du Saint-Esprit de Marseille ; a soigné Louis II, roi de Naples, pour la maladie de la vessie dont il est mort en 1417[6].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>1408-1457 : fl. Moïse Marvan, chirurgien de l'hôpital du Saint-Esprit de Marseille ; a soigné Louis II, roi de Naples, pour la maladie de la vessie dont il est mort en 1417.</t>
         </is>
       </c>
     </row>
@@ -586,7 +604,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1457_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1457_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -604,11 +622,13 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Nicolas Dati (mort en 1498), philosophe et médecin de Sienne[7].
-Matthias de Miechow (en) (mort en 1523), géographe, astrologue et médecin polonais[8].
-Vers 1457 : Jacopo Berengario da Carpi (mort en 1530), médecin, anatomiste et chirurgien italien, dont les Commentaires sur Mondino (1521) sont le premier traité imprimé comportant des illustrations anatomiques[9],[10].</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Nicolas Dati (mort en 1498), philosophe et médecin de Sienne.
+Matthias de Miechow (en) (mort en 1523), géographe, astrologue et médecin polonais.
+Vers 1457 : Jacopo Berengario da Carpi (mort en 1530), médecin, anatomiste et chirurgien italien, dont les Commentaires sur Mondino (1521) sont le premier traité imprimé comportant des illustrations anatomiques,.</t>
         </is>
       </c>
     </row>
@@ -618,7 +638,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>1457_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1457_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -636,9 +656,11 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Guido Carrara (né à une date inconnue), philosophe et médecin, père de Jean Michel Albert Carrara (en) (1438-1490), également humaniste et médecin[11].</t>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Guido Carrara (né à une date inconnue), philosophe et médecin, père de Jean Michel Albert Carrara (en) (1438-1490), également humaniste et médecin.</t>
         </is>
       </c>
     </row>
